--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -23,9 +28,6 @@
   </si>
   <si>
     <t>Fans</t>
-  </si>
-  <si>
-    <t>19/03/2019</t>
   </si>
   <si>
     <t>Central Macedonia, Greece</t>
@@ -52,20 +54,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,15 +82,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -377,18 +380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -402,160 +401,165 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Crete, Greece</t>
+  </si>
+  <si>
+    <t>Central Greece (region), Greece</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -552,6 +555,83 @@
       </c>
       <c r="C15">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="44220" windowHeight="22440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -58,10 +58,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,14 +100,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -405,7 +430,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -416,7 +441,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -427,7 +452,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -438,7 +463,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -449,7 +474,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -460,7 +485,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -471,7 +496,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>43542</v>
+        <v>43525</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -482,7 +507,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -493,32 +518,32 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -526,7 +551,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -537,7 +562,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -548,18 +573,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>43543</v>
+        <v>43526</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
         <v>9</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>43544</v>
+        <v>43527</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -570,32 +595,32 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>43544</v>
+        <v>43527</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>43544</v>
+        <v>43527</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>43544</v>
+        <v>43527</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -603,7 +628,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>43544</v>
+        <v>43527</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -614,7 +639,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>43544</v>
+        <v>43527</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -625,17 +650,1327 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43532</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
         <v>43544</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -100,23 +100,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -968,7 +963,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>43532</v>
       </c>
       <c r="B51" t="s">
@@ -979,7 +974,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>43532</v>
       </c>
       <c r="B52" t="s">
@@ -990,7 +985,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>43532</v>
       </c>
       <c r="B53" t="s">
@@ -1001,7 +996,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>43532</v>
       </c>
       <c r="B54" t="s">
@@ -1012,7 +1007,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>43532</v>
       </c>
       <c r="B55" t="s">
@@ -1023,7 +1018,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>43532</v>
       </c>
       <c r="B56" t="s">
@@ -1034,7 +1029,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>43532</v>
       </c>
       <c r="B57" t="s">
@@ -1965,6 +1960,83 @@
         <v>10</v>
       </c>
       <c r="C141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148">
         <v>9</v>
       </c>
     </row>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2037,6 +2037,83 @@
         <v>10</v>
       </c>
       <c r="C148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155">
         <v>9</v>
       </c>
     </row>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2115,6 +2115,83 @@
       </c>
       <c r="C155">
         <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2192,6 +2192,83 @@
       </c>
       <c r="C162">
         <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2268,6 +2268,83 @@
         <v>9</v>
       </c>
       <c r="C169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176">
         <v>10</v>
       </c>
     </row>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2346,6 +2346,83 @@
       </c>
       <c r="C176">
         <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="44220" windowHeight="22440"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="22440" windowWidth="44220" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -53,39 +48,43 @@
   <si>
     <t>Central Greece (region), Greece</t>
   </si>
+  <si>
+    <t>01/04/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,21 +100,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -403,14 +401,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
       <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -424,1937 +426,2009 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
+      <c r="A170" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
+      <c r="A171" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
+      <c r="A172" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
+      <c r="A173" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
+      <c r="A174" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
+      <c r="A175" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
+      <c r="A176" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="44220" windowHeight="22440"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="22440" windowWidth="44220" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -53,39 +48,43 @@
   <si>
     <t>Central Greece (region), Greece</t>
   </si>
+  <si>
+    <t>01/04/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,21 +100,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -403,14 +401,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -424,2014 +426,2009 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
+      <c r="A170" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
+      <c r="A171" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
+      <c r="A172" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
+      <c r="A173" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
+      <c r="A174" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
+      <c r="A175" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
+      <c r="A176" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>43558</v>
+      <c r="A177" t="s">
+        <v>11</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
-      <c r="C177">
-        <v>93</v>
+      <c r="C177" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>43558</v>
+      <c r="A178" t="s">
+        <v>11</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>43558</v>
+      <c r="A179" t="s">
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="C179" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>43558</v>
+      <c r="A180" t="s">
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>43558</v>
+      <c r="A181" t="s">
+        <v>11</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
-      <c r="C181">
-        <v>12</v>
+      <c r="C181" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>43558</v>
+      <c r="A182" t="s">
+        <v>11</v>
       </c>
       <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
         <v>9</v>
       </c>
-      <c r="C182">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>43558</v>
-      </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183">
-        <v>11</v>
+      <c r="C183" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2350,18 +2350,18 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179">
         <v>17</v>
@@ -2383,32 +2383,32 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -2416,12 +2416,89 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
         <v>43558</v>
       </c>
-      <c r="B183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183">
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
         <v>11</v>
       </c>
     </row>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="44220" windowHeight="22440"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="22440" windowWidth="44220" xWindow="240" yWindow="20"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -53,39 +48,43 @@
   <si>
     <t>Central Greece (region), Greece</t>
   </si>
+  <si>
+    <t>06/04/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,21 +100,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -403,14 +401,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
       <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -424,2091 +426,2163 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43525</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43526</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43527</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43528</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43529</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>43531</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>43532</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>43533</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>43534</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>43536</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>43537</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>43538</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>43539</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>43540</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>43541</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>43542</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="n">
         <v>43543</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="n">
         <v>43546</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="n">
         <v>43551</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
+      <c r="A170" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
+      <c r="A171" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
+      <c r="A172" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
+      <c r="A173" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
+      <c r="A174" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
+      <c r="A175" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
+      <c r="A176" s="1" t="n">
         <v>43552</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
+      <c r="A177" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
+      <c r="A178" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
+      <c r="A179" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
+      <c r="A180" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
+      <c r="A181" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
+      <c r="A182" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
+      <c r="A183" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="B183" t="s">
         <v>9</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
+      <c r="A184" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
+      <c r="A185" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
+      <c r="A186" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
+      <c r="A187" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
+      <c r="A188" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
+      <c r="A189" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
+      <c r="A190" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>11</v>
       </c>
     </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="22440" windowWidth="44220" xWindow="240" yWindow="20"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -48,43 +58,39 @@
   <si>
     <t>Central Greece (region), Greece</t>
   </si>
-  <si>
-    <t>06/04/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,20 +106,26 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -401,20 +413,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,2164 +436,2472 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>43525</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>43525</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>43525</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>43525</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>43525</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>43525</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>43525</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>43526</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>43526</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>43526</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>43526</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>43526</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>43526</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>43526</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>43527</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>43527</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>43527</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>43527</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="n">
+      <c r="C19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>43527</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>43527</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="n">
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>43527</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="n">
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>43528</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>43528</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>43528</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>43528</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="n">
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>43528</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>43528</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="n">
+      <c r="C28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>43528</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="n">
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>43529</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>43529</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>43529</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="n">
+      <c r="C32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>43529</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="n">
+      <c r="C33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>43529</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>43529</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="n">
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>43529</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>43530</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>43530</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>43530</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>43530</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="n">
+      <c r="C40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>43530</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>43530</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="n">
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>43530</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="n">
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43531</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43531</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>43531</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>43531</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="n">
+      <c r="C47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>43531</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>43531</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="n">
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>43531</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="n">
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>43532</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>43532</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>43532</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>43532</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="n">
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>43532</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>43532</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="n">
+      <c r="C56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>43532</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="n">
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>43533</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>43533</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>43533</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>43533</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="n">
+      <c r="C61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>43533</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>43533</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="n">
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>43533</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="n">
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>43534</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>43534</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>43534</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="n">
+      <c r="C67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>43534</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="n">
+      <c r="C68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>43534</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>43534</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="n">
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>43534</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>43535</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>43535</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>43535</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>43535</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="n">
+      <c r="C75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>43535</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>43535</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="n">
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>43535</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="n">
+      <c r="C78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>43536</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>43536</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>43536</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>43536</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="n">
+      <c r="C82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>43536</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>43536</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="n">
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>43536</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="n">
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>43537</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>43537</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>43537</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="n">
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>43537</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
-      <c r="C89" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="n">
+      <c r="C89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>43537</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>43537</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="n">
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>43537</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>43538</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>43538</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>43538</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>43538</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="n">
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>43538</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>43538</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="n">
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>43538</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="n">
+      <c r="C99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>43539</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>43539</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>43539</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>43539</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
-      <c r="C103" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="n">
+      <c r="C103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>43539</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>43539</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
-      <c r="C105" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="n">
+      <c r="C105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>43539</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="n">
+      <c r="C106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>43540</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>43540</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>43540</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>43540</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="n">
+      <c r="C110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>43540</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>43540</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="n">
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>43540</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="C113" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="n">
+      <c r="C113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>43541</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>43541</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>43541</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
-      <c r="C116" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="n">
+      <c r="C116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>43541</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C117" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1" t="n">
+      <c r="C117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>43541</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>43541</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="n">
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>43541</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>43542</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>43542</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>43542</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>43542</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1" t="n">
+      <c r="C124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>43542</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>43542</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="n">
+      <c r="C126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>43542</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="n">
+      <c r="C127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>43543</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>43543</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>43543</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>43543</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="n">
+      <c r="C131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>43543</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>43543</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="n">
+      <c r="C133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>43543</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="n">
+      <c r="C134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>43544</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>43544</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>43544</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
-      <c r="C137" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="n">
+      <c r="C137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>43544</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
-      <c r="C138" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="n">
+      <c r="C138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>43544</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>43544</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="n">
+      <c r="C140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>43544</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>43545</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>43545</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>43545</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>43545</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
-      <c r="C145" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="n">
+      <c r="C145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>43545</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>43545</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="n">
+      <c r="C147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>43545</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>43546</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>43546</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>43546</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>43546</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
-      <c r="C152" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1" t="n">
+      <c r="C152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>43546</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
-      <c r="C153" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="n">
+      <c r="C153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>43546</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1" t="n">
+      <c r="C154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>43546</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>43550</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>43550</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>43550</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="C158" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1" t="n">
+      <c r="C158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>43550</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>43550</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>43550</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>43550</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>43551</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>43551</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>43551</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
-      <c r="C165" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1" t="n">
+      <c r="C165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>43551</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
-      <c r="C166" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1" t="n">
+      <c r="C166">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>43551</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>43551</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>43551</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="C169" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1" t="n">
+      <c r="C169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>43552</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>94</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>43552</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>43552</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>43552</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>43552</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>43552</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>43552</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="n">
+      <c r="C176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>43556</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>43556</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>43556</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>43556</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>43556</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>43556</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>43556</v>
       </c>
       <c r="B183" t="s">
         <v>9</v>
       </c>
-      <c r="C183" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1" t="n">
-        <v>43558</v>
+      <c r="C183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43557</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>93</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1" t="n">
-        <v>43558</v>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43557</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1" t="n">
-        <v>43558</v>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>43557</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1" t="n">
-        <v>43558</v>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>43557</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1" t="n">
-        <v>43558</v>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>43557</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1" t="n">
-        <v>43558</v>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>43557</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>43558</v>
       </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" t="n">
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196">
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203">
         <v>11</v>
       </c>
-      <c r="B191" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" t="n">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
         <v>110</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>11</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" t="n">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213">
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" t="n">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214">
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" t="n">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" t="n">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216">
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>11</v>
-      </c>
-      <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" t="n">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217">
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" t="n">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
         <v>15</v>
       </c>
     </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -105,27 +100,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -414,18 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233:XFD233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>43525</v>
       </c>
@@ -447,7 +441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>43525</v>
       </c>
@@ -458,7 +452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>43525</v>
       </c>
@@ -469,7 +463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>43525</v>
       </c>
@@ -480,7 +474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>43525</v>
       </c>
@@ -491,7 +485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>43525</v>
       </c>
@@ -502,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>43525</v>
       </c>
@@ -513,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>43526</v>
       </c>
@@ -524,7 +518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>43526</v>
       </c>
@@ -535,7 +529,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>43526</v>
       </c>
@@ -546,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>43526</v>
       </c>
@@ -557,7 +551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>43526</v>
       </c>
@@ -568,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>43526</v>
       </c>
@@ -579,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>43526</v>
       </c>
@@ -590,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>43527</v>
       </c>
@@ -601,7 +595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>43527</v>
       </c>
@@ -612,7 +606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>43527</v>
       </c>
@@ -623,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>43527</v>
       </c>
@@ -634,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -645,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>43527</v>
       </c>
@@ -656,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>43527</v>
       </c>
@@ -667,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>43528</v>
       </c>
@@ -678,7 +672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>43528</v>
       </c>
@@ -689,7 +683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>43528</v>
       </c>
@@ -700,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>43528</v>
       </c>
@@ -711,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>43528</v>
       </c>
@@ -722,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43528</v>
       </c>
@@ -733,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43528</v>
       </c>
@@ -744,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43529</v>
       </c>
@@ -755,7 +749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43529</v>
       </c>
@@ -766,7 +760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43529</v>
       </c>
@@ -777,7 +771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43529</v>
       </c>
@@ -788,7 +782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43529</v>
       </c>
@@ -799,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43529</v>
       </c>
@@ -810,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43529</v>
       </c>
@@ -821,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43530</v>
       </c>
@@ -832,7 +826,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43530</v>
       </c>
@@ -843,7 +837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43530</v>
       </c>
@@ -854,7 +848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43530</v>
       </c>
@@ -865,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43530</v>
       </c>
@@ -876,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43530</v>
       </c>
@@ -887,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43530</v>
       </c>
@@ -898,7 +892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43531</v>
       </c>
@@ -909,7 +903,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43531</v>
       </c>
@@ -920,7 +914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43531</v>
       </c>
@@ -931,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43531</v>
       </c>
@@ -942,7 +936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43531</v>
       </c>
@@ -953,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43531</v>
       </c>
@@ -964,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43531</v>
       </c>
@@ -975,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43532</v>
       </c>
@@ -986,7 +980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43532</v>
       </c>
@@ -997,7 +991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43532</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43532</v>
       </c>
@@ -1019,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43532</v>
       </c>
@@ -1030,7 +1024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43532</v>
       </c>
@@ -1041,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43532</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43533</v>
       </c>
@@ -1063,7 +1057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43533</v>
       </c>
@@ -1074,7 +1068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>43533</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>43533</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>43533</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>43533</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>43533</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>43534</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>43534</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>43534</v>
       </c>
@@ -1162,7 +1156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>43534</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>43534</v>
       </c>
@@ -1184,7 +1178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>43534</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>43534</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>43535</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>43535</v>
       </c>
@@ -1228,7 +1222,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>43535</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>43535</v>
       </c>
@@ -1250,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>43535</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>43535</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>43535</v>
       </c>
@@ -1283,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>43536</v>
       </c>
@@ -1294,7 +1288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>43536</v>
       </c>
@@ -1305,7 +1299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>43536</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>43536</v>
       </c>
@@ -1327,7 +1321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>43536</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>43536</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>43536</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>43537</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>43537</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>43537</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>43537</v>
       </c>
@@ -1404,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>43537</v>
       </c>
@@ -1415,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>43537</v>
       </c>
@@ -1426,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>43537</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>43538</v>
       </c>
@@ -1448,7 +1442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>43538</v>
       </c>
@@ -1459,7 +1453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>43538</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>43538</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>43538</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>43538</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>43538</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>43539</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>43539</v>
       </c>
@@ -1536,7 +1530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>43539</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>43539</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>43539</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>43539</v>
       </c>
@@ -1580,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>43539</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>43540</v>
       </c>
@@ -1602,7 +1596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>43540</v>
       </c>
@@ -1613,7 +1607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>43540</v>
       </c>
@@ -1624,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>43540</v>
       </c>
@@ -1635,7 +1629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>43540</v>
       </c>
@@ -1646,7 +1640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>43540</v>
       </c>
@@ -1657,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>43540</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>43541</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>43541</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>43541</v>
       </c>
@@ -1701,7 +1695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>43541</v>
       </c>
@@ -1712,7 +1706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>43541</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>43541</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>43541</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>43542</v>
       </c>
@@ -1756,7 +1750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>43542</v>
       </c>
@@ -1767,7 +1761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>43542</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>43542</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>43542</v>
       </c>
@@ -1800,7 +1794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>43542</v>
       </c>
@@ -1811,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>43542</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>43543</v>
       </c>
@@ -1833,7 +1827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>43543</v>
       </c>
@@ -1844,7 +1838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>43543</v>
       </c>
@@ -1855,7 +1849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>43543</v>
       </c>
@@ -1866,7 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>43543</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>43543</v>
       </c>
@@ -1888,7 +1882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>43543</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>43544</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>43544</v>
       </c>
@@ -1921,7 +1915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>43544</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>43544</v>
       </c>
@@ -1943,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>43544</v>
       </c>
@@ -1954,7 +1948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>43544</v>
       </c>
@@ -1965,7 +1959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>43544</v>
       </c>
@@ -1976,7 +1970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>43545</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>43545</v>
       </c>
@@ -1998,7 +1992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>43545</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>43545</v>
       </c>
@@ -2020,7 +2014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>43545</v>
       </c>
@@ -2031,7 +2025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>43545</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>43545</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>43546</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>43546</v>
       </c>
@@ -2075,7 +2069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>43546</v>
       </c>
@@ -2086,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>43546</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>43546</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>43546</v>
       </c>
@@ -2119,7 +2113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>43546</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>43550</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>43550</v>
       </c>
@@ -2152,7 +2146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>43550</v>
       </c>
@@ -2163,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>43550</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>43550</v>
       </c>
@@ -2185,7 +2179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>43550</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>43550</v>
       </c>
@@ -2207,7 +2201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>43551</v>
       </c>
@@ -2218,7 +2212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>43551</v>
       </c>
@@ -2229,7 +2223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>43551</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>43551</v>
       </c>
@@ -2251,7 +2245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>43551</v>
       </c>
@@ -2262,7 +2256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>43551</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>43551</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>43552</v>
       </c>
@@ -2295,7 +2289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>43552</v>
       </c>
@@ -2306,7 +2300,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>43552</v>
       </c>
@@ -2317,7 +2311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>43552</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>43552</v>
       </c>
@@ -2339,7 +2333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>43552</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>43552</v>
       </c>
@@ -2361,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>43556</v>
       </c>
@@ -2372,7 +2366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>43556</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>43556</v>
       </c>
@@ -2394,7 +2388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>43556</v>
       </c>
@@ -2405,7 +2399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>43556</v>
       </c>
@@ -2416,7 +2410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>43556</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>43556</v>
       </c>
@@ -2438,7 +2432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>43557</v>
       </c>
@@ -2449,7 +2443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>43557</v>
       </c>
@@ -2460,7 +2454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>43557</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>43557</v>
       </c>
@@ -2482,7 +2476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>43557</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>43557</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>43557</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>43558</v>
       </c>
@@ -2526,7 +2520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>43558</v>
       </c>
@@ -2537,7 +2531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>43558</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>43558</v>
       </c>
@@ -2559,7 +2553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>43558</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>43558</v>
       </c>
@@ -2581,7 +2575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>43558</v>
       </c>
@@ -2592,7 +2586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>43559</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>43559</v>
       </c>
@@ -2614,7 +2608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>43559</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>43559</v>
       </c>
@@ -2636,7 +2630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>43559</v>
       </c>
@@ -2647,7 +2641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>43559</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>43559</v>
       </c>
@@ -2669,7 +2663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>43560</v>
       </c>
@@ -2680,7 +2674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>43560</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>43560</v>
       </c>
@@ -2702,7 +2696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>43560</v>
       </c>
@@ -2713,7 +2707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>43560</v>
       </c>
@@ -2724,7 +2718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>43560</v>
       </c>
@@ -2735,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>43560</v>
       </c>
@@ -2746,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>43561</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>43561</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>43561</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>43561</v>
       </c>
@@ -2790,7 +2784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>43561</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>43561</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>43561</v>
       </c>
@@ -2823,7 +2817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>43562</v>
       </c>
@@ -2834,7 +2828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>43562</v>
       </c>
@@ -2845,7 +2839,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>43562</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>43562</v>
       </c>
@@ -2867,7 +2861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>43562</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>43562</v>
       </c>
@@ -2889,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>43562</v>
       </c>
@@ -2897,11 +2891,170 @@
         <v>7</v>
       </c>
       <c r="C225">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -100,26 +105,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,18 +414,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:XFD233"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43525</v>
       </c>
@@ -441,7 +447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43525</v>
       </c>
@@ -452,7 +458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43525</v>
       </c>
@@ -463,7 +469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43525</v>
       </c>
@@ -474,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43525</v>
       </c>
@@ -485,7 +491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43525</v>
       </c>
@@ -496,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43525</v>
       </c>
@@ -507,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43526</v>
       </c>
@@ -518,7 +524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43526</v>
       </c>
@@ -529,7 +535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43526</v>
       </c>
@@ -540,7 +546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43526</v>
       </c>
@@ -551,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43526</v>
       </c>
@@ -562,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43526</v>
       </c>
@@ -573,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43526</v>
       </c>
@@ -584,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43527</v>
       </c>
@@ -595,7 +601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43527</v>
       </c>
@@ -606,7 +612,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43527</v>
       </c>
@@ -617,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43527</v>
       </c>
@@ -628,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -639,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43527</v>
       </c>
@@ -650,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43527</v>
       </c>
@@ -661,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43528</v>
       </c>
@@ -672,7 +678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43528</v>
       </c>
@@ -683,7 +689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43528</v>
       </c>
@@ -694,7 +700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43528</v>
       </c>
@@ -705,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43528</v>
       </c>
@@ -716,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43528</v>
       </c>
@@ -727,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43528</v>
       </c>
@@ -738,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43529</v>
       </c>
@@ -749,7 +755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43529</v>
       </c>
@@ -760,7 +766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43529</v>
       </c>
@@ -771,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43529</v>
       </c>
@@ -782,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43529</v>
       </c>
@@ -793,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43529</v>
       </c>
@@ -804,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43529</v>
       </c>
@@ -815,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43530</v>
       </c>
@@ -826,7 +832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43530</v>
       </c>
@@ -837,7 +843,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43530</v>
       </c>
@@ -848,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43530</v>
       </c>
@@ -859,7 +865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43530</v>
       </c>
@@ -870,7 +876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43530</v>
       </c>
@@ -881,7 +887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43530</v>
       </c>
@@ -892,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43531</v>
       </c>
@@ -903,7 +909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43531</v>
       </c>
@@ -914,7 +920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43531</v>
       </c>
@@ -925,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43531</v>
       </c>
@@ -936,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43531</v>
       </c>
@@ -947,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43531</v>
       </c>
@@ -958,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43531</v>
       </c>
@@ -969,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43532</v>
       </c>
@@ -980,7 +986,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43532</v>
       </c>
@@ -991,7 +997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43532</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43532</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43532</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43532</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43532</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43533</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43533</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43533</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43533</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43533</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43533</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43533</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43534</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43534</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43534</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43534</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43534</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43534</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43534</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43535</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43535</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43535</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43535</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43535</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43535</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43535</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43536</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43536</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43536</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43536</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43536</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43536</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43536</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43537</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43537</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43537</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43537</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43537</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43537</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43537</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43538</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43538</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43538</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43538</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43538</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43538</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43538</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43539</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43539</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43539</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43539</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43539</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43539</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43539</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43540</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43540</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43540</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43540</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43540</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43540</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43540</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43541</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43541</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43541</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43541</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43541</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43541</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43541</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43542</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43542</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43542</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43542</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43542</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43542</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43542</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43543</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43543</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43543</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43543</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43543</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43543</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43543</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43544</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43544</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43544</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43544</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43544</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43544</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43544</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43545</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43545</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43545</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43545</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43545</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43545</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43545</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43546</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43546</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43546</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43546</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43546</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43546</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43546</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43550</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43550</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43550</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43550</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43550</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43550</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43550</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43551</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43551</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43551</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43551</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43551</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43551</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43551</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43552</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43552</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43552</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43552</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43552</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43552</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43552</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43556</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43556</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43556</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43556</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43556</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43556</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43556</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43557</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43557</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43557</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43557</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43557</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43557</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43557</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43558</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43558</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43558</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43558</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43558</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43558</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43558</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43559</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43559</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43559</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43559</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43559</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43559</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43559</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43560</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43560</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43560</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43560</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43560</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43560</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43560</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43561</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43561</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43561</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43561</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43561</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43561</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43561</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43562</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43562</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43562</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43562</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43562</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43562</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43562</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43563</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43563</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43563</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43563</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43563</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43563</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43563</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43564</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43564</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43564</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43564</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43564</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43564</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43564</v>
       </c>
@@ -3046,15 +3052,87 @@
       </c>
       <c r="C239">
         <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3131,6 +3131,83 @@
         <v>16</v>
       </c>
     </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3208,6 +3208,83 @@
         <v>16</v>
       </c>
     </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3285,6 +3285,237 @@
         <v>16</v>
       </c>
     </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B265" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B272" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3516,6 +3516,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,15 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3370,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="C268">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -3381,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="C269">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -3392,7 +3390,7 @@
         <v>6</v>
       </c>
       <c r="C270">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -3403,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C271">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -3436,160 +3434,6 @@
         <v>7</v>
       </c>
       <c r="C274">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B275" t="s">
-        <v>4</v>
-      </c>
-      <c r="C275">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B276" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B277" t="s">
-        <v>6</v>
-      </c>
-      <c r="C277">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B278" t="s">
-        <v>5</v>
-      </c>
-      <c r="C278">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B279" t="s">
-        <v>8</v>
-      </c>
-      <c r="C279">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B280" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>43570</v>
-      </c>
-      <c r="B281" t="s">
-        <v>7</v>
-      </c>
-      <c r="C281">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B282" t="s">
-        <v>4</v>
-      </c>
-      <c r="C282">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B283" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B284" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B285" t="s">
-        <v>5</v>
-      </c>
-      <c r="C285">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B286" t="s">
-        <v>8</v>
-      </c>
-      <c r="C286">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B287" t="s">
-        <v>10</v>
-      </c>
-      <c r="C287">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>43571</v>
-      </c>
-      <c r="B288" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288">
         <v>15</v>
       </c>
     </row>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,9 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3437,6 +3439,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C281">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282:C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282:C288"/>
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3516,6 +3516,83 @@
         <v>14</v>
       </c>
     </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="11">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+      <selection activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3593,6 +3593,83 @@
         <v>14</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Central Greece (region), Greece</t>
+  </si>
+  <si>
+    <t>Peloponnese (region), Greece</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3670,6 +3673,314 @@
         <v>14</v>
       </c>
     </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B301" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B323" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323"/>
+      <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3981,6 +3981,83 @@
         <v>14</v>
       </c>
     </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330"/>
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4058,6 +4058,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4135,6 +4135,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B344" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="12">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A344" sqref="A344"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4212,6 +4212,237 @@
         <v>17</v>
       </c>
     </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B353" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="13">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Peloponnese (region), Greece</t>
+  </si>
+  <si>
+    <t>Limassol District, Cyprus</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C365"/>
+  <dimension ref="A1:C379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4443,6 +4446,160 @@
         <v>17</v>
       </c>
     </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B367" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B371" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B373" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B379" t="s">
+        <v>12</v>
+      </c>
+      <c r="C379">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/RegionDF_countinuously.xlsx
+++ b/excels/lite/RegionDF_countinuously.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="13">
   <si>
     <t>Date Fetched</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C379"/>
+  <dimension ref="A1:C386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379"/>
+      <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4600,6 +4600,83 @@
         <v>17</v>
       </c>
     </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B381" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
